--- a/public/static/交通电力通信-通信设施损毁及抢修情况统计表.xlsx
+++ b/public/static/交通电力通信-通信设施损毁及抢修情况统计表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>通信设施损毁及抢修情况</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>雅安市县区列表</t>
+  </si>
+  <si>
+    <t>当前时间</t>
   </si>
   <si>
     <t>雨城区</t>
@@ -152,14 +155,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -572,6 +577,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -622,21 +642,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,22 +939,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,19 +970,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,16 +995,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,98 +1355,98 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.4583333333333" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="31.3083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.3083333333333" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+    <row r="3" s="17" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" ht="26.4" customHeight="1" spans="1:9">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="11" customHeight="1" spans="4:4">
-      <c r="D11" s="1"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="4:4">
-      <c r="D12" s="24"/>
+      <c r="D12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1440,9 +1454,12 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 C6:C13 C15:C1048576">
       <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,69 +1480,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7666666666667" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.4583333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.5333333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.6166666666667" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.8416666666667" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.4583333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.3083333333333" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="9" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1543,61 +1560,77 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="14" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2"/>
+    <col min="3" max="16384" width="8.84166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
+      <c r="B2" s="6">
+        <f ca="1">NOW()</f>
+        <v>45604.7919560185</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
